--- a/teaching/traditional_assets/database/data/germany/germany_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/germany/germany_brokerage_investment_banking.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ15"/>
+  <dimension ref="A1:AQ14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,49 +591,49 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.08840000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="E2">
-        <v>0.126</v>
+        <v>0.359</v>
       </c>
       <c r="F2">
-        <v>0.258</v>
+        <v>0.672</v>
       </c>
       <c r="G2">
-        <v>0.008366129497740389</v>
+        <v>0.002998764755839469</v>
       </c>
       <c r="H2">
-        <v>0.003048124700727118</v>
+        <v>0.001871385156406862</v>
       </c>
       <c r="I2">
-        <v>0.006140331319807359</v>
+        <v>0.006623269071026422</v>
       </c>
       <c r="J2">
-        <v>0.004919271963786648</v>
+        <v>0.005059940932910042</v>
       </c>
       <c r="K2">
-        <v>22.882</v>
+        <v>221.198</v>
       </c>
       <c r="L2">
-        <v>0.02473304588724749</v>
+        <v>0.143731477023224</v>
       </c>
       <c r="M2">
-        <v>36.39725</v>
+        <v>35.39326</v>
       </c>
       <c r="N2">
-        <v>0.01663288808053851</v>
+        <v>0.00528218980999897</v>
       </c>
       <c r="O2">
-        <v>1.590649855781837</v>
+        <v>0.1600071429217262</v>
       </c>
       <c r="P2">
-        <v>36.39725</v>
+        <v>35.39326</v>
       </c>
       <c r="Q2">
-        <v>0.01663288808053851</v>
+        <v>0.00528218980999897</v>
       </c>
       <c r="R2">
-        <v>1.590649855781837</v>
+        <v>0.1600071429217262</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -642,70 +642,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1241.917</v>
+        <v>1885.549</v>
       </c>
       <c r="V2">
-        <v>0.5675337138470116</v>
+        <v>0.2814046435409948</v>
       </c>
       <c r="W2">
-        <v>0.03727272727272727</v>
+        <v>0.2021927472457508</v>
       </c>
       <c r="X2">
-        <v>0.043583323709689</v>
+        <v>0.02937884620245023</v>
       </c>
       <c r="Y2">
-        <v>-0.006310596436961732</v>
+        <v>0.1728139010433005</v>
       </c>
       <c r="Z2">
-        <v>-1.918191622620223</v>
+        <v>-6.534365567020711</v>
       </c>
       <c r="AA2">
-        <v>-0</v>
+        <v>0.0002114482160821597</v>
       </c>
       <c r="AB2">
-        <v>0.04166489860506732</v>
+        <v>0.02893749897011493</v>
       </c>
       <c r="AC2">
-        <v>-0.04134640149891668</v>
+        <v>-0.02785463576735336</v>
       </c>
       <c r="AD2">
-        <v>364.664</v>
+        <v>599.8299999999999</v>
       </c>
       <c r="AE2">
-        <v>17.99608608249172</v>
+        <v>18.5950373378484</v>
       </c>
       <c r="AF2">
-        <v>382.6600860824917</v>
+        <v>618.4250373378484</v>
       </c>
       <c r="AG2">
-        <v>-859.2569139175082</v>
+        <v>-1267.123962662152</v>
       </c>
       <c r="AH2">
-        <v>0.1488411093533772</v>
+        <v>0.08449681874743989</v>
       </c>
       <c r="AI2">
-        <v>0.3552259549991705</v>
+        <v>0.4132738275447441</v>
       </c>
       <c r="AJ2">
-        <v>-0.6465375871130995</v>
+        <v>-0.2332115955292783</v>
       </c>
       <c r="AK2">
-        <v>5.217517855413278</v>
+        <v>3.256183017703008</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.018</v>
       </c>
       <c r="AM2">
-        <v>-0.029</v>
+        <v>-0.057</v>
       </c>
       <c r="AN2">
-        <v>39.16906552094522</v>
+        <v>42.96161008451511</v>
+      </c>
+      <c r="AO2">
+        <v>339.4444444444445</v>
       </c>
       <c r="AP2">
-        <v>-92.29397571616629</v>
+        <v>-90.75518999155935</v>
       </c>
       <c r="AQ2">
-        <v>-70</v>
+        <v>-107.1929824561404</v>
       </c>
     </row>
     <row r="3">
@@ -725,7 +728,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.166</v>
+        <v>0.265</v>
+      </c>
+      <c r="E3">
+        <v>0.637</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -734,34 +740,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1730945519779394</v>
+        <v>0.06827586061786008</v>
       </c>
       <c r="J3">
-        <v>0.1627041559519785</v>
+        <v>0.05434010276572152</v>
       </c>
       <c r="K3">
-        <v>0.6879999999999999</v>
+        <v>11.6</v>
       </c>
       <c r="L3">
-        <v>0.04</v>
+        <v>0.292191435768262</v>
       </c>
       <c r="M3">
-        <v>0.42465</v>
+        <v>1.49814</v>
       </c>
       <c r="N3">
-        <v>0.02497941176470589</v>
+        <v>0.01727958477508651</v>
       </c>
       <c r="O3">
-        <v>0.6172238372093024</v>
+        <v>0.12915</v>
       </c>
       <c r="P3">
-        <v>0.42465</v>
+        <v>1.49814</v>
       </c>
       <c r="Q3">
-        <v>0.02497941176470589</v>
+        <v>0.01727958477508651</v>
       </c>
       <c r="R3">
-        <v>0.6172238372093024</v>
+        <v>0.12915</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -770,55 +776,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="V3">
-        <v>0.0001176470588235294</v>
+        <v>1.153402537485583e-05</v>
       </c>
       <c r="W3">
-        <v>0.03822222222222222</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="X3">
-        <v>0.04670139043672591</v>
+        <v>0.02968450849685401</v>
       </c>
       <c r="Y3">
-        <v>-0.008479168214503695</v>
+        <v>0.7540992752869298</v>
       </c>
       <c r="Z3">
-        <v>0.7410321581824999</v>
+        <v>2.082760435695655</v>
       </c>
       <c r="AA3">
-        <v>0.1205690118303567</v>
+        <v>0.1131774161120808</v>
       </c>
       <c r="AB3">
-        <v>0.04142513042007384</v>
+        <v>0.02890106891025234</v>
       </c>
       <c r="AC3">
-        <v>0.07914388141028283</v>
+        <v>0.08427634720182847</v>
       </c>
       <c r="AD3">
-        <v>0.016</v>
+        <v>0.146</v>
       </c>
       <c r="AE3">
-        <v>5.113868529897212</v>
+        <v>4.247241667354773</v>
       </c>
       <c r="AF3">
-        <v>5.129868529897212</v>
+        <v>4.393241667354773</v>
       </c>
       <c r="AG3">
-        <v>5.127868529897213</v>
+        <v>4.392241667354773</v>
       </c>
       <c r="AH3">
-        <v>0.2318074561973477</v>
+        <v>0.04822796496141366</v>
       </c>
       <c r="AI3">
-        <v>0.2573960045045851</v>
+        <v>0.1450238213393025</v>
       </c>
       <c r="AJ3">
-        <v>0.2317380240653948</v>
+        <v>0.04821751651906975</v>
       </c>
       <c r="AK3">
-        <v>0.2573214753100171</v>
+        <v>0.1449955970768643</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -827,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.004</v>
+        <v>0.04101123595505618</v>
       </c>
       <c r="AP3">
-        <v>1.281967132474303</v>
+        <v>1.233775749256959</v>
       </c>
     </row>
     <row r="4">
@@ -849,23 +855,26 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D4">
+        <v>2.366</v>
+      </c>
       <c r="G4">
-        <v>0.4555735056542811</v>
+        <v>0.2548672566371681</v>
       </c>
       <c r="H4">
-        <v>0.4555735056542811</v>
+        <v>0.2548672566371681</v>
       </c>
       <c r="I4">
-        <v>0.3279483037156704</v>
+        <v>0.54070796460177</v>
       </c>
       <c r="J4">
-        <v>0.1970905001742216</v>
+        <v>0.3714428626394768</v>
       </c>
       <c r="K4">
-        <v>1.23</v>
+        <v>3.16</v>
       </c>
       <c r="L4">
-        <v>0.1987075928917609</v>
+        <v>0.279646017699115</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -889,67 +898,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>3.21</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="V4">
-        <v>0.02284697508896797</v>
+        <v>0.02155074116305587</v>
       </c>
       <c r="W4">
-        <v>0.03727272727272727</v>
+        <v>0.06766595289079229</v>
       </c>
       <c r="X4">
-        <v>0.04190534344985802</v>
+        <v>0.02900706875730568</v>
       </c>
       <c r="Y4">
-        <v>-0.004632616177130754</v>
+        <v>0.0386588841334866</v>
       </c>
       <c r="Z4">
-        <v>0.3828076685219543</v>
+        <v>0.2892244689019708</v>
       </c>
       <c r="AA4">
-        <v>0.07544775485951957</v>
+        <v>0.1074303646743304</v>
       </c>
       <c r="AB4">
-        <v>0.04190534344985802</v>
+        <v>0.02899054207681099</v>
       </c>
       <c r="AC4">
-        <v>0.03354241140966155</v>
+        <v>0.07843982259751937</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.663</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.663</v>
       </c>
       <c r="AG4">
-        <v>-3.21</v>
+        <v>-8.786999999999999</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.00150969002397743</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.01554039800295338</v>
       </c>
       <c r="AJ4">
-        <v>-0.02338116395950179</v>
+        <v>-0.02044853192712345</v>
       </c>
       <c r="AK4">
-        <v>-0.07381007128075419</v>
+        <v>-0.2645650799385783</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.018</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>-0.044</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>0.1076298701298701</v>
+      </c>
+      <c r="AO4">
+        <v>339.4444444444445</v>
       </c>
       <c r="AP4">
-        <v>-1.558252427184466</v>
+        <v>-1.426461038961039</v>
+      </c>
+      <c r="AQ4">
+        <v>-138.8636363636364</v>
       </c>
     </row>
     <row r="5">
@@ -969,7 +984,7 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0336</v>
+        <v>0.183</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -978,16 +993,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.06515458867319265</v>
+        <v>0.04072866120435924</v>
       </c>
       <c r="J5">
-        <v>0.06515458867319265</v>
+        <v>0.04072866120435924</v>
       </c>
       <c r="K5">
-        <v>-0.376</v>
+        <v>-0.002</v>
       </c>
       <c r="L5">
-        <v>-0.6074313408723748</v>
+        <v>-0.002068252326783868</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -1011,55 +1026,55 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="V5">
-        <v>0.00103448275862069</v>
+        <v>0.0007434944237918215</v>
       </c>
       <c r="W5">
-        <v>-0.1367272727272727</v>
+        <v>-0.0008658008658008658</v>
       </c>
       <c r="X5">
-        <v>0.04217031154805322</v>
+        <v>0.02923252224536298</v>
       </c>
       <c r="Y5">
-        <v>-0.1788975842753259</v>
+        <v>-0.03009832311116385</v>
       </c>
       <c r="Z5">
-        <v>0.2215186947483405</v>
+        <v>0.4106022994512674</v>
       </c>
       <c r="AA5">
-        <v>0.01443295943975065</v>
+        <v>0.01672328194408153</v>
       </c>
       <c r="AB5">
-        <v>0.04187137361149235</v>
+        <v>0.02895522693974838</v>
       </c>
       <c r="AC5">
-        <v>-0.02743841417174171</v>
+        <v>-0.01223194499566685</v>
       </c>
       <c r="AD5">
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.04834654805646877</v>
+        <v>0.04807692307692307</v>
       </c>
       <c r="AF5">
-        <v>0.04834654805646877</v>
+        <v>0.04807692307692307</v>
       </c>
       <c r="AG5">
-        <v>0.04534654805646877</v>
+        <v>0.04607692307692307</v>
       </c>
       <c r="AH5">
-        <v>0.0163978512255754</v>
+        <v>0.01755864587722995</v>
       </c>
       <c r="AI5">
-        <v>0.0205001881917276</v>
+        <v>0.02065091690071039</v>
       </c>
       <c r="AJ5">
-        <v>0.01539599748844202</v>
+        <v>0.01684050718322134</v>
       </c>
       <c r="AK5">
-        <v>0.01925260131842883</v>
+        <v>0.0198088561129667</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1071,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.9069309611293753</v>
+        <v>0.9403453689167973</v>
       </c>
     </row>
     <row r="6">
@@ -1082,7 +1097,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>JDC Group AG (XTRA:A8A)</t>
+          <t>Tradegate AG Wertpapierhandelsbank (DB:T2G)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1091,112 +1106,115 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.05889999999999999</v>
+        <v>0.354</v>
+      </c>
+      <c r="E6">
+        <v>0.5479999999999999</v>
       </c>
       <c r="G6">
-        <v>0.01080851063829787</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.005472146431210323</v>
+        <v>0.005557389463873085</v>
       </c>
       <c r="J6">
-        <v>0.005472146431210323</v>
+        <v>0.003814508636705376</v>
       </c>
       <c r="K6">
-        <v>-3.59</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="L6">
-        <v>-0.0305531914893617</v>
+        <v>0.3600985221674877</v>
       </c>
       <c r="M6">
-        <v>-0</v>
+        <v>18.3976</v>
       </c>
       <c r="N6">
-        <v>-0</v>
+        <v>0.009275321401562894</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.2516771545827634</v>
       </c>
       <c r="P6">
-        <v>-0</v>
+        <v>18.3976</v>
       </c>
       <c r="Q6">
-        <v>-0</v>
+        <v>0.009275321401562894</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.2516771545827634</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
       <c r="U6">
-        <v>6.24</v>
+        <v>0.178</v>
       </c>
       <c r="V6">
-        <v>0.0625250501002004</v>
+        <v>8.974035795311317e-05</v>
       </c>
       <c r="W6">
-        <v>-0.08629807692307692</v>
+        <v>1.635346756152125</v>
       </c>
       <c r="X6">
-        <v>0.04578085431591662</v>
+        <v>0.02906424842048326</v>
       </c>
       <c r="Y6">
-        <v>-0.1320789312389936</v>
+        <v>1.606282507731642</v>
       </c>
       <c r="Z6">
-        <v>2.111975542277941</v>
+        <v>3.582126443690048</v>
       </c>
       <c r="AA6">
-        <v>0.01155703942647972</v>
+        <v>0.0136640522572264</v>
       </c>
       <c r="AB6">
-        <v>0.04149923196095859</v>
+        <v>0.02901877223938297</v>
       </c>
       <c r="AC6">
-        <v>-0.02994219253447887</v>
+        <v>-0.01535471998215657</v>
       </c>
       <c r="AD6">
-        <v>19.1</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="AE6">
-        <v>5.235113971663935</v>
+        <v>1.359249694168819</v>
       </c>
       <c r="AF6">
-        <v>24.33511397166394</v>
+        <v>11.22924969416882</v>
       </c>
       <c r="AG6">
-        <v>18.09511397166393</v>
+        <v>11.05124969416882</v>
       </c>
       <c r="AH6">
-        <v>0.1960373112254029</v>
+        <v>0.005629460587641397</v>
       </c>
       <c r="AI6">
-        <v>0.4073837371969791</v>
+        <v>0.1013202717257016</v>
       </c>
       <c r="AJ6">
-        <v>0.153484850746343</v>
+        <v>0.005540719846563653</v>
       </c>
       <c r="AK6">
-        <v>0.3382573216172381</v>
+        <v>0.0998746035378144</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
-        <v>-0.019</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>11.30177514792899</v>
+        <v>7.05</v>
       </c>
       <c r="AP6">
-        <v>10.70716803057038</v>
-      </c>
-      <c r="AQ6">
-        <v>-0</v>
+        <v>7.893749781549156</v>
       </c>
     </row>
     <row r="7">
@@ -1207,7 +1225,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lang &amp; Schwarz Aktiengesellschaft (XTRA:LUS)</t>
+          <t>JDC Group AG (XTRA:A8A)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1216,106 +1234,109 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.105</v>
+        <v>0.09470000000000001</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.01178597252349964</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.001871389637116318</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.001871389637116318</v>
       </c>
       <c r="K7">
-        <v>-5.43</v>
+        <v>-2.37</v>
       </c>
       <c r="L7">
-        <v>-0.01774509803921569</v>
+        <v>-0.01713665943600868</v>
       </c>
       <c r="M7">
-        <v>3.591</v>
+        <v>-0</v>
       </c>
       <c r="N7">
-        <v>0.07544117647058823</v>
+        <v>-0</v>
       </c>
       <c r="O7">
-        <v>-0.6613259668508287</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>3.591</v>
+        <v>-0</v>
       </c>
       <c r="Q7">
-        <v>0.07544117647058823</v>
+        <v>-0</v>
       </c>
       <c r="R7">
-        <v>-0.6613259668508287</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
       <c r="U7">
-        <v>179.8</v>
+        <v>11.6</v>
       </c>
       <c r="V7">
-        <v>3.777310924369748</v>
+        <v>0.08363374188896901</v>
       </c>
       <c r="W7">
-        <v>-0.1214765100671141</v>
+        <v>-0.06694915254237288</v>
       </c>
       <c r="X7">
-        <v>0.08734942056052974</v>
+        <v>0.03181939782545477</v>
       </c>
       <c r="Y7">
-        <v>-0.2088259306276438</v>
+        <v>-0.09876855036782764</v>
       </c>
       <c r="Z7">
-        <v>-37.77777777777781</v>
+        <v>2.847088844699926</v>
       </c>
       <c r="AA7">
-        <v>-0</v>
+        <v>0.005328012559920913</v>
       </c>
       <c r="AB7">
-        <v>0.04037053031399682</v>
+        <v>0.02868509307459542</v>
       </c>
       <c r="AC7">
-        <v>-0.04037053031399682</v>
+        <v>-0.02335708051467451</v>
       </c>
       <c r="AD7">
-        <v>136.1</v>
+        <v>28.2</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>0.3159340659340659</v>
       </c>
       <c r="AF7">
-        <v>136.1</v>
+        <v>28.51593406593406</v>
       </c>
       <c r="AG7">
-        <v>-43.70000000000002</v>
+        <v>16.91593406593407</v>
       </c>
       <c r="AH7">
-        <v>0.7408818726183996</v>
+        <v>0.1705335931364657</v>
       </c>
       <c r="AI7">
-        <v>0.8091557669441142</v>
+        <v>0.4681194584502151</v>
       </c>
       <c r="AJ7">
-        <v>-11.20512820512825</v>
+        <v>0.108703097581041</v>
       </c>
       <c r="AK7">
-        <v>3.767241379310341</v>
+        <v>0.3430115313910089</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
-        <v>-0.01</v>
+        <v>-0.013</v>
+      </c>
+      <c r="AN7">
+        <v>87.57763975155279</v>
+      </c>
+      <c r="AP7">
+        <v>52.53395672650331</v>
       </c>
       <c r="AQ7">
         <v>-0</v>
@@ -1329,7 +1350,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Baader Bank Aktiengesellschaft (XTRA:BWB)</t>
+          <t>Varengold Bank AG (XTRA:VG8)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1338,7 +1359,7 @@
         </is>
       </c>
       <c r="D8">
-        <v>-0.0229</v>
+        <v>0.0301</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1347,16 +1368,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-7.112623322261195e-05</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>-7.112623322261195e-05</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>-22.6</v>
+        <v>1.82</v>
       </c>
       <c r="L8">
-        <v>-0.1648431801604668</v>
+        <v>0.0728</v>
       </c>
       <c r="M8">
         <v>-0</v>
@@ -1365,7 +1386,7 @@
         <v>-0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P8">
         <v>-0</v>
@@ -1374,73 +1395,67 @@
         <v>-0</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>252.1</v>
+        <v>126.9</v>
       </c>
       <c r="V8">
-        <v>4.316780821917808</v>
+        <v>2.807522123893805</v>
       </c>
       <c r="W8">
-        <v>-0.2041553748870822</v>
+        <v>0.04751958224543081</v>
       </c>
       <c r="X8">
-        <v>0.06743296494850247</v>
+        <v>0.06724808253560581</v>
       </c>
       <c r="Y8">
-        <v>-0.2715883398355847</v>
+        <v>-0.019728500290175</v>
       </c>
       <c r="Z8">
-        <v>2.769766519772334</v>
+        <v>-0.4708097928436911</v>
       </c>
       <c r="AA8">
-        <v>-0.0001970030594575093</v>
+        <v>-0</v>
       </c>
       <c r="AB8">
-        <v>0.0406286326965464</v>
+        <v>0.02768795155600107</v>
       </c>
       <c r="AC8">
-        <v>-0.04082563575600391</v>
+        <v>-0.02768795155600107</v>
       </c>
       <c r="AD8">
-        <v>86.2</v>
+        <v>125.5</v>
       </c>
       <c r="AE8">
-        <v>7.598757032874101</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>93.79875703287411</v>
+        <v>125.5</v>
       </c>
       <c r="AG8">
-        <v>-158.3012429671259</v>
+        <v>-1.400000000000006</v>
       </c>
       <c r="AH8">
-        <v>0.6162912159171844</v>
+        <v>0.7352079671939075</v>
       </c>
       <c r="AI8">
-        <v>0.5248987658913515</v>
+        <v>0.7456922162804516</v>
       </c>
       <c r="AJ8">
-        <v>1.584577311207404</v>
+        <v>-0.03196347031963483</v>
       </c>
       <c r="AK8">
-        <v>2.15665616232172</v>
+        <v>-0.03381642512077309</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8">
         <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>57.08609271523179</v>
-      </c>
-      <c r="AP8">
-        <v>-104.8352602431297</v>
       </c>
     </row>
     <row r="9">
@@ -1451,7 +1466,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Varengold Bank AG (XTRA:VG8)</t>
+          <t>Lang &amp; Schwarz Aktiengesellschaft (XTRA:LUS)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1460,7 +1475,10 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.342</v>
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.253</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1475,10 +1493,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.39</v>
+        <v>18.9</v>
       </c>
       <c r="L9">
-        <v>0.09835390946502058</v>
+        <v>0.0394572025052192</v>
       </c>
       <c r="M9">
         <v>-0</v>
@@ -1502,55 +1520,55 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>105.7</v>
+        <v>317</v>
       </c>
       <c r="V9">
-        <v>2.731266149870801</v>
+        <v>1.354700854700855</v>
       </c>
       <c r="W9">
-        <v>0.08597122302158273</v>
+        <v>0.5887850467289719</v>
       </c>
       <c r="X9">
-        <v>0.04777822427500218</v>
+        <v>0.04558744861971899</v>
       </c>
       <c r="Y9">
-        <v>0.03819299874658055</v>
+        <v>0.5431975981092529</v>
       </c>
       <c r="Z9">
-        <v>-0.08256880733944955</v>
+        <v>-41.29310344827578</v>
       </c>
       <c r="AA9">
         <v>-0</v>
       </c>
       <c r="AB9">
-        <v>0.04134640149891668</v>
+        <v>0.02802131997870564</v>
       </c>
       <c r="AC9">
-        <v>-0.04134640149891668</v>
+        <v>-0.02802131997870564</v>
       </c>
       <c r="AD9">
-        <v>14.3</v>
+        <v>281.9</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>14.3</v>
+        <v>281.9</v>
       </c>
       <c r="AG9">
-        <v>-91.40000000000001</v>
+        <v>-35.10000000000002</v>
       </c>
       <c r="AH9">
-        <v>0.269811320754717</v>
+        <v>0.5464237255282032</v>
       </c>
       <c r="AI9">
-        <v>0.2718631178707225</v>
+        <v>0.8568389057750759</v>
       </c>
       <c r="AJ9">
-        <v>1.734345351043643</v>
+        <v>-0.1764705882352942</v>
       </c>
       <c r="AK9">
-        <v>1.721280602636535</v>
+        <v>-2.925000000000007</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1567,7 +1585,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FinTech Group AG (XTRA:FTK)</t>
+          <t>Baader Bank Aktiengesellschaft (XTRA:BWB)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1576,28 +1594,25 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.479</v>
-      </c>
-      <c r="F10">
-        <v>0.258</v>
+        <v>0.0535</v>
       </c>
       <c r="G10">
-        <v>0.02715773809523809</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>-0.0001939891659255796</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>-0.0001476035646267694</v>
       </c>
       <c r="K10">
-        <v>23</v>
+        <v>20.3</v>
       </c>
       <c r="L10">
-        <v>0.1711309523809524</v>
+        <v>0.1025252525252525</v>
       </c>
       <c r="M10">
         <v>-0</v>
@@ -1621,61 +1636,67 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>691</v>
+        <v>367.6</v>
       </c>
       <c r="V10">
-        <v>1.326550201574199</v>
+        <v>1.463375796178344</v>
       </c>
       <c r="W10">
-        <v>0.1618578465869106</v>
+        <v>0.2391048292108363</v>
       </c>
       <c r="X10">
-        <v>0.04446225542292133</v>
+        <v>0.03297946921747517</v>
       </c>
       <c r="Y10">
-        <v>0.1173955911639893</v>
+        <v>0.2061253599933611</v>
       </c>
       <c r="Z10">
-        <v>-0.2469226529487415</v>
+        <v>-2.865082785999484</v>
       </c>
       <c r="AA10">
-        <v>-0</v>
+        <v>0.0004228964321643194</v>
       </c>
       <c r="AB10">
-        <v>0.04161825839226016</v>
+        <v>0.0285894911014769</v>
       </c>
       <c r="AC10">
-        <v>-0.04161825839226016</v>
+        <v>-0.02816659466931258</v>
       </c>
       <c r="AD10">
-        <v>83.8</v>
+        <v>60.9</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>11.89204927426632</v>
       </c>
       <c r="AF10">
-        <v>83.8</v>
+        <v>72.79204927426632</v>
       </c>
       <c r="AG10">
-        <v>-607.2</v>
+        <v>-294.8079507257337</v>
       </c>
       <c r="AH10">
-        <v>0.1385811146022821</v>
+        <v>0.2246723320443159</v>
       </c>
       <c r="AI10">
-        <v>0.2866917550461854</v>
+        <v>0.4112729897910159</v>
       </c>
       <c r="AJ10">
-        <v>7.035921205098489</v>
+        <v>6.760417442678937</v>
       </c>
       <c r="AK10">
-        <v>1.522949586155004</v>
+        <v>1.546671844502088</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
       <c r="AM10">
         <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>26.02564102564103</v>
+      </c>
+      <c r="AP10">
+        <v>-125.986303728946</v>
       </c>
     </row>
     <row r="11">
@@ -1686,7 +1707,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Berliner Effektengesellschaft AG (DB:BFV)</t>
+          <t>flatexDEGIRO AG (XTRA:FTK)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1695,13 +1716,16 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.111</v>
+        <v>0.318</v>
       </c>
       <c r="E11">
-        <v>0.126</v>
+        <v>0.359</v>
+      </c>
+      <c r="F11">
+        <v>0.672</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0005935556811758055</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1713,85 +1737,82 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>8.85</v>
+        <v>32.3</v>
       </c>
       <c r="L11">
-        <v>0.1234309623430962</v>
+        <v>0.1825890333521764</v>
       </c>
       <c r="M11">
-        <v>9.2888</v>
+        <v>-0</v>
       </c>
       <c r="N11">
-        <v>0.03428866740494648</v>
+        <v>-0</v>
       </c>
       <c r="O11">
-        <v>1.049581920903955</v>
+        <v>-0</v>
       </c>
       <c r="P11">
-        <v>9.2888</v>
+        <v>-0</v>
       </c>
       <c r="Q11">
-        <v>0.03428866740494648</v>
+        <v>-0</v>
       </c>
       <c r="R11">
-        <v>1.049581920903955</v>
+        <v>-0</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
       <c r="U11">
-        <v>0.19</v>
+        <v>1049.2</v>
       </c>
       <c r="V11">
-        <v>0.0007013658176448875</v>
+        <v>0.4961694883193039</v>
       </c>
       <c r="W11">
-        <v>0.134703196347032</v>
+        <v>0.1553631553631553</v>
       </c>
       <c r="X11">
-        <v>0.04253898094148197</v>
+        <v>0.02952517015953748</v>
       </c>
       <c r="Y11">
-        <v>0.09216421540554999</v>
+        <v>0.1258379852036179</v>
       </c>
       <c r="Z11">
-        <v>1.063261856037014</v>
+        <v>-0.4012247675209798</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB11">
-        <v>0.04166489860506732</v>
+        <v>0.02891977100048148</v>
       </c>
       <c r="AC11">
-        <v>-0.04166489860506732</v>
+        <v>-0.02891977100048148</v>
       </c>
       <c r="AD11">
-        <v>10.8</v>
+        <v>82.7</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>10.8</v>
+        <v>82.7</v>
       </c>
       <c r="AG11">
-        <v>10.61</v>
+        <v>-966.5</v>
       </c>
       <c r="AH11">
-        <v>0.03833865814696486</v>
+        <v>0.03763710007736768</v>
       </c>
       <c r="AI11">
-        <v>0.1170097508125677</v>
+        <v>0.2644707387272146</v>
       </c>
       <c r="AJ11">
-        <v>0.03768960250079927</v>
+        <v>-0.8418256249455623</v>
       </c>
       <c r="AK11">
-        <v>0.1151883617413962</v>
+        <v>1.312287847929396</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -1808,7 +1829,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>EUWAX Aktiengesellschaft (DB:EUX)</t>
+          <t>Berliner Effektengesellschaft AG (DB:BFV)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1817,10 +1838,10 @@
         </is>
       </c>
       <c r="D12">
-        <v>-0.0503</v>
+        <v>0.319</v>
       </c>
       <c r="E12">
-        <v>-0.14</v>
+        <v>0.307</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1835,28 +1856,28 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>4.1</v>
+        <v>41</v>
       </c>
       <c r="L12">
-        <v>0.2009803921568628</v>
+        <v>0.1944049312470365</v>
       </c>
       <c r="M12">
-        <v>4.5</v>
+        <v>9.112500000000001</v>
       </c>
       <c r="N12">
-        <v>0.01366120218579235</v>
+        <v>0.01031759510869565</v>
       </c>
       <c r="O12">
-        <v>1.097560975609756</v>
+        <v>0.2222560975609756</v>
       </c>
       <c r="P12">
-        <v>4.5</v>
+        <v>9.112500000000001</v>
       </c>
       <c r="Q12">
-        <v>0.01366120218579235</v>
+        <v>0.01031759510869565</v>
       </c>
       <c r="R12">
-        <v>1.097560975609756</v>
+        <v>0.2222560975609756</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1865,55 +1886,55 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>3.47</v>
+        <v>0.178</v>
       </c>
       <c r="V12">
-        <v>0.01053430479659988</v>
+        <v>0.0002015398550724637</v>
       </c>
       <c r="W12">
-        <v>0.04137235116044399</v>
+        <v>0.66884176182708</v>
       </c>
       <c r="X12">
-        <v>0.04205057768983633</v>
+        <v>0.02914023252924171</v>
       </c>
       <c r="Y12">
-        <v>-0.0006782265293923326</v>
+        <v>0.6397015292978383</v>
       </c>
       <c r="Z12">
-        <v>0.2276785714285714</v>
+        <v>2.932832707551106</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.04184855356647539</v>
+        <v>0.02896671724481428</v>
       </c>
       <c r="AC12">
-        <v>-0.04184855356647539</v>
+        <v>-0.02896671724481428</v>
       </c>
       <c r="AD12">
-        <v>3.01</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>3.01</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="AG12">
-        <v>-0.4600000000000004</v>
+        <v>9.691999999999998</v>
       </c>
       <c r="AH12">
-        <v>0.009055082578743118</v>
+        <v>0.01105176525916221</v>
       </c>
       <c r="AI12">
-        <v>0.03033968349964721</v>
+        <v>0.06813004762890867</v>
       </c>
       <c r="AJ12">
-        <v>-0.001398431324861678</v>
+        <v>0.01085461623578215</v>
       </c>
       <c r="AK12">
-        <v>-0.004804679339878842</v>
+        <v>0.06698366184723412</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -1930,7 +1951,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Tradegate AG Wertpapierhandelsbank (DB:T2G)</t>
+          <t>Sino AG (DB:XTP)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1939,10 +1960,10 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.116</v>
+        <v>0.137</v>
       </c>
       <c r="E13">
-        <v>0.186</v>
+        <v>0.5760000000000001</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1957,28 +1978,28 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.5</v>
+        <v>5.49</v>
       </c>
       <c r="L13">
-        <v>0.2360515021459227</v>
+        <v>0.4652542372881356</v>
       </c>
       <c r="M13">
-        <v>18.5928</v>
+        <v>1.64502</v>
       </c>
       <c r="N13">
-        <v>0.02879479634505188</v>
+        <v>0.02025886699507389</v>
       </c>
       <c r="O13">
-        <v>1.126836363636364</v>
+        <v>0.299639344262295</v>
       </c>
       <c r="P13">
-        <v>18.5928</v>
+        <v>1.64502</v>
       </c>
       <c r="Q13">
-        <v>0.02879479634505188</v>
+        <v>0.02025886699507389</v>
       </c>
       <c r="R13">
-        <v>1.126836363636364</v>
+        <v>0.299639344262295</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1987,55 +2008,55 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>0.189</v>
+        <v>0.02</v>
       </c>
       <c r="V13">
-        <v>0.0002927055908316556</v>
+        <v>0.0002463054187192118</v>
       </c>
       <c r="W13">
-        <v>0.336734693877551</v>
+        <v>1.104627766599598</v>
       </c>
       <c r="X13">
-        <v>0.04217118268863908</v>
+        <v>0.02898623322517386</v>
       </c>
       <c r="Y13">
-        <v>0.2945635111889119</v>
+        <v>1.075641533374424</v>
       </c>
       <c r="Z13">
-        <v>1.377747117374593</v>
+        <v>2.325581395348837</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.04187126376550534</v>
+        <v>0.02898623322517386</v>
       </c>
       <c r="AC13">
-        <v>-0.04187126376550534</v>
+        <v>-0.02898623322517386</v>
       </c>
       <c r="AD13">
-        <v>10.8</v>
+        <v>0</v>
       </c>
       <c r="AE13">
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>10.8</v>
+        <v>0</v>
       </c>
       <c r="AG13">
-        <v>10.611</v>
+        <v>-0.02</v>
       </c>
       <c r="AH13">
-        <v>0.01645087585681645</v>
+        <v>0</v>
       </c>
       <c r="AI13">
-        <v>0.1945945945945946</v>
+        <v>0</v>
       </c>
       <c r="AJ13">
-        <v>0.01616764003650708</v>
+        <v>-0.0002463661000246366</v>
       </c>
       <c r="AK13">
-        <v>0.1918424906438141</v>
+        <v>-0.001926782273603083</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -2052,7 +2073,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sino AG (DB:XTP)</t>
+          <t>EUWAX Aktiengesellschaft (DB:EUX)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2061,7 +2082,10 @@
         </is>
       </c>
       <c r="D14">
-        <v>-0.024</v>
+        <v>0.0616</v>
+      </c>
+      <c r="E14">
+        <v>0.06309999999999999</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2070,88 +2094,91 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>-0.0003514091294670987</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>-0.0002488102139887583</v>
       </c>
       <c r="K14">
-        <v>-1.47</v>
+        <v>15.9</v>
       </c>
       <c r="L14">
-        <v>-0.2601769911504425</v>
+        <v>0.3605442176870748</v>
       </c>
       <c r="M14">
-        <v>-0</v>
+        <v>4.74</v>
       </c>
       <c r="N14">
-        <v>-0</v>
+        <v>0.01074829931972789</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.2981132075471698</v>
       </c>
       <c r="P14">
-        <v>-0</v>
+        <v>4.74</v>
       </c>
       <c r="Q14">
-        <v>-0</v>
+        <v>0.01074829931972789</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>0.2981132075471698</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
       <c r="U14">
-        <v>0.013</v>
+        <v>3.42</v>
       </c>
       <c r="V14">
-        <v>0.0009558823529411764</v>
+        <v>0.007755102040816327</v>
       </c>
       <c r="W14">
-        <v>-0.1997282608695652</v>
+        <v>0.1652806652806653</v>
       </c>
       <c r="X14">
-        <v>0.04217997793496844</v>
+        <v>0.0290116530179872</v>
       </c>
       <c r="Y14">
-        <v>-0.2419082388045337</v>
+        <v>0.1362690122626781</v>
       </c>
       <c r="Z14">
-        <v>0.7836338418862692</v>
+        <v>0.4571251551574322</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>-0.000113737407674365</v>
       </c>
       <c r="AB14">
-        <v>0.04191533790499247</v>
+        <v>0.02898298183055565</v>
       </c>
       <c r="AC14">
-        <v>-0.04191533790499247</v>
+        <v>-0.02909671923823001</v>
       </c>
       <c r="AD14">
-        <v>0.235</v>
+        <v>0.081</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>0.7324857130474953</v>
       </c>
       <c r="AF14">
-        <v>0.235</v>
+        <v>0.8134857130474953</v>
       </c>
       <c r="AG14">
-        <v>0.222</v>
+        <v>-2.606514286952505</v>
       </c>
       <c r="AH14">
-        <v>0.01698590531261294</v>
+        <v>0.001841242377956395</v>
       </c>
       <c r="AI14">
-        <v>0.03169251517194875</v>
+        <v>0.007594615259060742</v>
       </c>
       <c r="AJ14">
-        <v>0.01606135146867313</v>
+        <v>-0.005945604512605853</v>
       </c>
       <c r="AK14">
-        <v>0.02999189408268036</v>
+        <v>-0.02513672164677297</v>
       </c>
       <c r="AL14">
         <v>0</v>
@@ -2159,121 +2186,11 @@
       <c r="AM14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>vPE WertpapierhandelsBank AG (DB:P0E)</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Brokerage &amp; Investment Banking</t>
-        </is>
-      </c>
-      <c r="D15">
-        <v>0.0718</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>-0.41</v>
-      </c>
-      <c r="L15">
-        <v>-0.02887323943661972</v>
-      </c>
-      <c r="M15">
-        <v>-0</v>
-      </c>
-      <c r="N15">
-        <v>-0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>-0</v>
-      </c>
-      <c r="Q15">
-        <v>-0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>-0.235632183908046</v>
-      </c>
-      <c r="X15">
-        <v>0.043583323709689</v>
-      </c>
-      <c r="Y15">
-        <v>-0.2792155076177349</v>
-      </c>
-      <c r="Z15">
-        <v>6.749049429657794</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0.04254308510772374</v>
-      </c>
-      <c r="AC15">
-        <v>-0.04254308510772374</v>
-      </c>
-      <c r="AD15">
-        <v>0.303</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0.303</v>
-      </c>
-      <c r="AG15">
-        <v>0.303</v>
-      </c>
-      <c r="AH15">
-        <v>0.09549322407815947</v>
-      </c>
-      <c r="AI15">
-        <v>0.1327201051248357</v>
-      </c>
-      <c r="AJ15">
-        <v>0.09549322407815947</v>
-      </c>
-      <c r="AK15">
-        <v>0.1327201051248357</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-      <c r="AM15">
-        <v>0</v>
+      <c r="AN14">
+        <v>0.6183206106870229</v>
+      </c>
+      <c r="AP14">
+        <v>-19.89705562559164</v>
       </c>
     </row>
   </sheetData>
